--- a/validation/validation_calculations.xlsx
+++ b/validation/validation_calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="homogeneidad" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="191">
   <si>
     <t xml:space="preserve">HOMOGENEITY VALIDATION - SO2 60-nmol/mol</t>
   </si>
@@ -36,22 +36,37 @@
     <t xml:space="preserve">Parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">MADe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIQR</t>
+  </si>
+  <si>
     <t xml:space="preserve">g (samples)</t>
   </si>
   <si>
     <t xml:space="preserve">m (replicates)</t>
   </si>
   <si>
-    <t xml:space="preserve">σ_pt (made)</t>
-  </si>
-  <si>
     <t xml:space="preserve">valor asignado x_pt</t>
   </si>
   <si>
     <t xml:space="preserve">mediana diferencias</t>
   </si>
   <si>
-    <t xml:space="preserve">made</t>
+    <t xml:space="preserve">q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desviacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR</t>
   </si>
   <si>
     <t xml:space="preserve">incertidumbre x_pt</t>
@@ -96,9 +111,6 @@
     <t xml:space="preserve">c = 0.3 × σ_pt</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">ss ≤ c ?</t>
   </si>
   <si>
@@ -111,24 +123,24 @@
     <t xml:space="preserve">HOMOGENEITY DATA</t>
   </si>
   <si>
+    <t xml:space="preserve">STABILITY DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rep 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rep 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stability Grand Mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homogeneity Grand Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">STABILITY DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rep 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rep 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability Grand Mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">STABILITY ASSESSMENT</t>
   </si>
   <si>
@@ -418,9 +430,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.7413 × IQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADe</t>
   </si>
   <si>
     <t xml:space="preserve">(computed)</t>
@@ -598,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -645,6 +654,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -658,6 +673,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -733,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,15 +779,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,20 +1063,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,395 +1107,514 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B6</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="n">
-        <f aca="false">B10</f>
-        <v>0.0502306410949924</v>
+        <f aca="false">MEDIAN(B19:B28)</f>
+        <v>59.900537635</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="6" t="n">
+        <f aca="false">MEDIAN(B19:B28)</f>
+        <v>59.900537635</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="n">
-        <f aca="false">MEDIAN(B15:B24)</f>
-        <v>59.900537635</v>
+        <f aca="false">MEDIAN(F19:F28)</f>
+        <v>0.0338709649999949</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">QUARTILE(B19:B28,1)</f>
+        <v>59.8822580625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="n">
-        <f aca="false">MEDIAN(F15:F24)</f>
-        <v>0.0338709649999949</v>
+        <f aca="false">1.483*B8</f>
+        <v>0.0502306410949924</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">QUARTILE(B19:B28,3)</f>
+        <v>59.9172043</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="n">
-        <f aca="false">1.483*B9</f>
+        <f aca="false">B9</f>
         <v>0.0502306410949924</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">D9-D8</f>
+        <v>0.0349462375000016</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="n">
-        <f aca="false">1.25*B10/SQRT(COUNT(C15:C24))</f>
+        <f aca="false">1.25*B9/SQRT(B5)</f>
         <v>0.0198554042738288</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">0.7413*D10</f>
+        <v>0.0259056458587512</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>0.0259056458587512</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">1.25*D11/SQRT(D5)</f>
+        <v>0.0102401056464203</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>59.89784946</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>59.83870968</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <f aca="false">AVERAGE(B15,C15)</f>
-        <v>59.86827957</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <f aca="false">ABS(B15-C15)</f>
-        <v>0.0591397800000024</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <f aca="false">ABS(C15-$B$8)</f>
-        <v>0.0618279550000054</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>59.81505376</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>59.93655914</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <f aca="false">AVERAGE(B16,C16)</f>
-        <v>59.87580645</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <f aca="false">ABS(B16-C16)</f>
-        <v>0.121505380000002</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <f aca="false">ABS(C16-$B$8)</f>
-        <v>0.0360215049999937</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>59.90322581</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>59.94623656</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <f aca="false">AVERAGE(B17,C17)</f>
-        <v>59.924731185</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <f aca="false">ABS(B17-C17)</f>
-        <v>0.0430107500000005</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <f aca="false">ABS(C17-$B$8)</f>
-        <v>0.0456989249999964</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>59.87311828</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>59.90215054</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <f aca="false">AVERAGE(B18,C18)</f>
-        <v>59.88763441</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <f aca="false">ABS(B18-C18)</f>
-        <v>0.029032260000001</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <f aca="false">ABS(C18-$B$8)</f>
-        <v>0.00161290499999467</v>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>59.92795699</v>
+        <v>59.89784946</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>59.91182796</v>
-      </c>
-      <c r="D19" s="7" t="n">
+        <v>59.83870968</v>
+      </c>
+      <c r="D19" s="9" t="n">
         <f aca="false">AVERAGE(B19,C19)</f>
-        <v>59.919892475</v>
-      </c>
-      <c r="E19" s="7" t="n">
+        <v>59.86827957</v>
+      </c>
+      <c r="E19" s="9" t="n">
         <f aca="false">ABS(B19-C19)</f>
-        <v>0.0161290300000019</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <f aca="false">ABS(C19-$B$8)</f>
-        <v>0.0112903249999903</v>
+        <v>0.0591397800000024</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <f aca="false">ABS(C19-$B$7)</f>
+        <v>0.0618279550000054</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>59.91397849</v>
+        <v>59.81505376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>59.96344086</v>
-      </c>
-      <c r="D20" s="7" t="n">
+        <v>59.93655914</v>
+      </c>
+      <c r="D20" s="9" t="n">
         <f aca="false">AVERAGE(B20,C20)</f>
-        <v>59.938709675</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>59.87580645</v>
+      </c>
+      <c r="E20" s="9" t="n">
         <f aca="false">ABS(B20-C20)</f>
-        <v>0.0494623700000005</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <f aca="false">ABS(C20-$B$8)</f>
-        <v>0.0629032249999924</v>
+        <v>0.121505380000002</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <f aca="false">ABS(C20-$B$7)</f>
+        <v>0.0360215049999937</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>59.91827957</v>
+        <v>59.90322581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>59.83333333</v>
-      </c>
-      <c r="D21" s="7" t="n">
+        <v>59.94623656</v>
+      </c>
+      <c r="D21" s="9" t="n">
         <f aca="false">AVERAGE(B21,C21)</f>
-        <v>59.87580645</v>
-      </c>
-      <c r="E21" s="7" t="n">
+        <v>59.924731185</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <f aca="false">ABS(B21-C21)</f>
-        <v>0.0849462400000007</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <f aca="false">ABS(C21-$B$8)</f>
-        <v>0.0672043050000042</v>
+        <v>0.0430107500000005</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <f aca="false">ABS(C21-$B$7)</f>
+        <v>0.0456989249999964</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>59.93010753</v>
+        <v>59.87311828</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>59.93225806</v>
-      </c>
-      <c r="D22" s="7" t="n">
+        <v>59.90215054</v>
+      </c>
+      <c r="D22" s="9" t="n">
         <f aca="false">AVERAGE(B22,C22)</f>
-        <v>59.931182795</v>
-      </c>
-      <c r="E22" s="7" t="n">
+        <v>59.88763441</v>
+      </c>
+      <c r="E22" s="9" t="n">
         <f aca="false">ABS(B22-C22)</f>
-        <v>0.00215053000000154</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <f aca="false">ABS(C22-$B$8)</f>
-        <v>0.0317204249999961</v>
+        <v>0.029032260000001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <f aca="false">ABS(C22-$B$7)</f>
+        <v>0.00161290499999467</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>59.89354839</v>
+        <v>59.92795699</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>59.90752688</v>
-      </c>
-      <c r="D23" s="7" t="n">
+        <v>59.91182796</v>
+      </c>
+      <c r="D23" s="9" t="n">
         <f aca="false">AVERAGE(B23,C23)</f>
-        <v>59.900537635</v>
-      </c>
-      <c r="E23" s="7" t="n">
+        <v>59.919892475</v>
+      </c>
+      <c r="E23" s="9" t="n">
         <f aca="false">ABS(B23-C23)</f>
-        <v>0.0139784899999995</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <f aca="false">ABS(C23-$B$8)</f>
-        <v>0.00698924499999265</v>
+        <v>0.0161290300000019</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <f aca="false">ABS(C23-$B$7)</f>
+        <v>0.0112903249999903</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>59.91397849</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>59.96344086</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <f aca="false">AVERAGE(B24,C24)</f>
+        <v>59.938709675</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <f aca="false">ABS(B24-C24)</f>
+        <v>0.0494623700000005</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <f aca="false">ABS(C24-$B$7)</f>
+        <v>0.0629032249999924</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>59.91827957</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>59.83333333</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <f aca="false">AVERAGE(B25,C25)</f>
+        <v>59.87580645</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <f aca="false">ABS(B25-C25)</f>
+        <v>0.0849462400000007</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <f aca="false">ABS(C25-$B$7)</f>
+        <v>0.0672043050000042</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>59.93010753</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>59.93225806</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <f aca="false">AVERAGE(B26,C26)</f>
+        <v>59.931182795</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <f aca="false">ABS(B26-C26)</f>
+        <v>0.00215053000000154</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <f aca="false">ABS(C26-$B$7)</f>
+        <v>0.0317204249999961</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>59.89354839</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>59.90752688</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <f aca="false">AVERAGE(B27,C27)</f>
+        <v>59.900537635</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <f aca="false">ABS(B27-C27)</f>
+        <v>0.0139784899999995</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <f aca="false">ABS(C27-$B$7)</f>
+        <v>0.00698924499999265</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>59.87849462</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>59.87204301</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <f aca="false">AVERAGE(B24,C24)</f>
+      <c r="D28" s="9" t="n">
+        <f aca="false">AVERAGE(B28,C28)</f>
         <v>59.875268815</v>
       </c>
-      <c r="E24" s="7" t="n">
-        <f aca="false">ABS(B24-C24)</f>
+      <c r="E28" s="9" t="n">
+        <f aca="false">ABS(B28-C28)</f>
         <v>0.00645160999999916</v>
       </c>
-      <c r="F24" s="7" t="n">
-        <f aca="false">ABS(C24-$B$8)</f>
+      <c r="F28" s="9" t="n">
+        <f aca="false">ABS(C28-$B$7)</f>
         <v>0.0284946250000075</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8" t="n">
-        <f aca="false">AVERAGE(D15:D24)</f>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <f aca="false">AVERAGE(D19:D28)</f>
         <v>59.899784946</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <f aca="false">_xlfn.STDEV.S(D15:D24)</f>
+      <c r="D31" s="6" t="n">
+        <f aca="false">AVERAGE(D19:D28)</f>
+        <v>59.899784946</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <f aca="false">_xlfn.STDEV.S(D19:D28)</f>
         <v>0.0267069591743292</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <f aca="false">SQRT(SUMSQ(E15:E24)/(2*COUNT(E15:E24)))</f>
-        <v>0.0394449294980436</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
-        <f aca="false">B30^2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8"/>
+      <c r="D32" s="6" t="n">
+        <f aca="false">_xlfn.STDEV.S(D19:D28)</f>
+        <v>0.0267069591743295</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="8" t="n">
-        <f aca="false">SQRT(ABS((B28^2)-((B29^2)/2)))</f>
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <f aca="false">SQRT(SUMSQ(E19:E28)/(2*COUNT(E19:E28)))</f>
+        <v>0.0394449294980436</v>
+      </c>
+      <c r="D33" s="11" t="n">
+        <f aca="false">SQRT(SUMSQ(E19:E28)/(2*COUNT(E19:E28)))</f>
+        <v>0.0394449294980435</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <f aca="false">SQRT(ABS((B32^2)-((B33^2)/2)))</f>
+        <v>0.00804298223381903</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">SQRT(ABS((B32^2)-((B33^2)/2)))</f>
         <v>0.00804298223381903</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <f aca="false">0.3*B10</f>
+        <v>0.0150691923284977</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">0.3*D12</f>
+        <v>0.00777169375762535</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8" t="str">
-        <f aca="false">IF(B33&lt;=B36,"PASS","FAIL")</f>
+        <v>28</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f aca="false">IF(B34&lt;=B36,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="D37" s="6" t="str">
+        <f aca="false">IF(D34&lt;=D36,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1480,23 +1636,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1506,7 +1662,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1515,469 +1671,548 @@
       <c r="F2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+      <c r="A4" s="12" t="str">
+        <f aca="false">homogeneidad!A4</f>
+        <v>Parameters</v>
+      </c>
+      <c r="B4" s="12" t="str">
+        <f aca="false">homogeneidad!B4</f>
+        <v>MADe</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="str">
+        <f aca="false">homogeneidad!D4</f>
+        <v>NIQR</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="12" t="str">
         <f aca="false">homogeneidad!A5</f>
         <v>g (samples)</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="12" t="n">
         <f aca="false">homogeneidad!B5</f>
         <v>10</v>
       </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="n">
+        <f aca="false">homogeneidad!D5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="12" t="str">
         <f aca="false">homogeneidad!A6</f>
         <v>m (replicates)</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="12" t="n">
         <f aca="false">homogeneidad!B6</f>
         <v>2</v>
       </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="n">
+        <f aca="false">homogeneidad!D6</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="12" t="str">
         <f aca="false">homogeneidad!A7</f>
-        <v>σ_pt (made)</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>valor asignado x_pt</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <f aca="false">homogeneidad!B7</f>
+        <v>59.900537635</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="n">
+        <f aca="false">homogeneidad!D7</f>
+        <v>59.900537635</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="str">
+        <f aca="false">homogeneidad!A8</f>
+        <v>mediana diferencias</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <f aca="false">homogeneidad!B8</f>
+        <v>0.0338709649999949</v>
+      </c>
+      <c r="C8" s="12" t="str">
+        <f aca="false">homogeneidad!C8</f>
+        <v>q1</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">homogeneidad!D8</f>
+        <v>59.8822580625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="str">
+        <f aca="false">homogeneidad!A9</f>
+        <v>desviacion</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <f aca="false">homogeneidad!B9</f>
         <v>0.0502306410949924</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="str">
-        <f aca="false">homogeneidad!A8</f>
-        <v>valor asignado x_pt</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">homogeneidad!B8</f>
-        <v>59.900537635</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="str">
-        <f aca="false">homogeneidad!A9</f>
-        <v>mediana diferencias</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">homogeneidad!B9</f>
-        <v>0.0338709649999949</v>
+      <c r="C9" s="12" t="str">
+        <f aca="false">homogeneidad!C9</f>
+        <v>q3</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">homogeneidad!D9</f>
+        <v>59.9172043</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="12" t="str">
         <f aca="false">homogeneidad!A10</f>
-        <v>made</v>
-      </c>
-      <c r="B10" s="1" t="n">
+        <v>σ_pt</v>
+      </c>
+      <c r="B10" s="12" t="n">
         <f aca="false">homogeneidad!B10</f>
         <v>0.0502306410949924</v>
       </c>
+      <c r="C10" s="12" t="str">
+        <f aca="false">homogeneidad!C10</f>
+        <v>ICR</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">homogeneidad!D10</f>
+        <v>0.0349462375000016</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="12" t="str">
         <f aca="false">homogeneidad!A11</f>
         <v>incertidumbre x_pt</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="12" t="n">
         <f aca="false">homogeneidad!B11</f>
         <v>0.0198554042738288</v>
       </c>
+      <c r="C11" s="12" t="str">
+        <f aca="false">homogeneidad!C11</f>
+        <v>NIQR</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">homogeneidad!D11</f>
+        <v>0.0259056458587512</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="str">
+        <f aca="false">homogeneidad!C12</f>
+        <v>σ_pt</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">homogeneidad!D12</f>
+        <v>0.0259056458587512</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="str">
+        <f aca="false">homogeneidad!C13</f>
+        <v>incertidumbre x_pt</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">homogeneidad!D13</f>
+        <v>0.0102401056464203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="str">
-        <f aca="false">homogeneidad!A14</f>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="str">
+        <f aca="false">homogeneidad!A18</f>
         <v>Sample ID</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <f aca="false">homogeneidad!B14</f>
+      <c r="B18" s="8" t="str">
+        <f aca="false">homogeneidad!B18</f>
         <v>replicate_1</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f aca="false">homogeneidad!C14</f>
+      <c r="C18" s="8" t="str">
+        <f aca="false">homogeneidad!C18</f>
         <v>replicate_2</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f aca="false">homogeneidad!D14</f>
+      <c r="D18" s="8" t="str">
+        <f aca="false">homogeneidad!D18</f>
         <v>promedio muestra xt</v>
       </c>
-      <c r="E14" s="6" t="str">
-        <f aca="false">homogeneidad!E14</f>
+      <c r="E18" s="8" t="str">
+        <f aca="false">homogeneidad!E18</f>
         <v>rango entre ensayos</v>
       </c>
-      <c r="F14" s="6" t="str">
-        <f aca="false">homogeneidad!F14</f>
+      <c r="F18" s="8" t="str">
+        <f aca="false">homogeneidad!F18</f>
         <v>desviacion vs xpt</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <f aca="false">homogeneidad!B15</f>
-        <v>59.89784946</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">homogeneidad!C15</f>
-        <v>59.83870968</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">homogeneidad!D15</f>
-        <v>59.86827957</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">homogeneidad!E15</f>
-        <v>0.0591397800000024</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">homogeneidad!F15</f>
-        <v>0.0618279550000054</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">homogeneidad!B16</f>
-        <v>59.81505376</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">homogeneidad!C16</f>
-        <v>59.93655914</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">homogeneidad!D16</f>
-        <v>59.87580645</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">homogeneidad!E16</f>
-        <v>0.121505380000002</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">homogeneidad!F16</f>
-        <v>0.0360215049999937</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <f aca="false">homogeneidad!B17</f>
-        <v>59.90322581</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">homogeneidad!C17</f>
-        <v>59.94623656</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">homogeneidad!D17</f>
-        <v>59.924731185</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">homogeneidad!E17</f>
-        <v>0.0430107500000005</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">homogeneidad!F17</f>
-        <v>0.0456989249999964</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <f aca="false">homogeneidad!B18</f>
-        <v>59.87311828</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">homogeneidad!C18</f>
-        <v>59.90215054</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">homogeneidad!D18</f>
-        <v>59.88763441</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">homogeneidad!E18</f>
-        <v>0.029032260000001</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">homogeneidad!F18</f>
-        <v>0.00161290499999467</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">homogeneidad!B19</f>
-        <v>59.92795699</v>
+        <v>59.89784946</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">homogeneidad!C19</f>
-        <v>59.91182796</v>
+        <v>59.83870968</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">homogeneidad!D19</f>
-        <v>59.919892475</v>
+        <v>59.86827957</v>
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">homogeneidad!E19</f>
-        <v>0.0161290300000019</v>
+        <v>0.0591397800000024</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">homogeneidad!F19</f>
-        <v>0.0112903249999903</v>
+        <v>0.0618279550000054</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">homogeneidad!B20</f>
-        <v>59.91397849</v>
+        <v>59.81505376</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">homogeneidad!C20</f>
-        <v>59.96344086</v>
+        <v>59.93655914</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">homogeneidad!D20</f>
-        <v>59.938709675</v>
+        <v>59.87580645</v>
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">homogeneidad!E20</f>
-        <v>0.0494623700000005</v>
+        <v>0.121505380000002</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">homogeneidad!F20</f>
-        <v>0.0629032249999924</v>
+        <v>0.0360215049999937</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">homogeneidad!B21</f>
-        <v>59.91827957</v>
+        <v>59.90322581</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">homogeneidad!C21</f>
-        <v>59.83333333</v>
+        <v>59.94623656</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">homogeneidad!D21</f>
-        <v>59.87580645</v>
+        <v>59.924731185</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">homogeneidad!E21</f>
-        <v>0.0849462400000007</v>
+        <v>0.0430107500000005</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">homogeneidad!F21</f>
-        <v>0.0672043050000042</v>
+        <v>0.0456989249999964</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">homogeneidad!B22</f>
-        <v>59.93010753</v>
+        <v>59.87311828</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="false">homogeneidad!C22</f>
-        <v>59.93225806</v>
+        <v>59.90215054</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">homogeneidad!D22</f>
-        <v>59.931182795</v>
+        <v>59.88763441</v>
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">homogeneidad!E22</f>
-        <v>0.00215053000000154</v>
+        <v>0.029032260000001</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">homogeneidad!F22</f>
-        <v>0.0317204249999961</v>
+        <v>0.00161290499999467</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="n">
         <f aca="false">homogeneidad!B23</f>
-        <v>59.89354839</v>
+        <v>59.92795699</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="false">homogeneidad!C23</f>
-        <v>59.90752688</v>
+        <v>59.91182796</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">homogeneidad!D23</f>
-        <v>59.900537635</v>
+        <v>59.919892475</v>
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">homogeneidad!E23</f>
-        <v>0.0139784899999995</v>
+        <v>0.0161290300000019</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">homogeneidad!F23</f>
-        <v>0.00698924499999265</v>
+        <v>0.0112903249999903</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="n">
         <f aca="false">homogeneidad!B24</f>
-        <v>59.87849462</v>
+        <v>59.91397849</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false">homogeneidad!C24</f>
-        <v>59.87204301</v>
+        <v>59.96344086</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">homogeneidad!D24</f>
-        <v>59.875268815</v>
+        <v>59.938709675</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">homogeneidad!E24</f>
-        <v>0.00645160999999916</v>
+        <v>0.0494623700000005</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">homogeneidad!F24</f>
+        <v>0.0629032249999924</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <f aca="false">homogeneidad!B25</f>
+        <v>59.91827957</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <f aca="false">homogeneidad!C25</f>
+        <v>59.83333333</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">homogeneidad!D25</f>
+        <v>59.87580645</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">homogeneidad!E25</f>
+        <v>0.0849462400000007</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <f aca="false">homogeneidad!F25</f>
+        <v>0.0672043050000042</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <f aca="false">homogeneidad!B26</f>
+        <v>59.93010753</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <f aca="false">homogeneidad!C26</f>
+        <v>59.93225806</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">homogeneidad!D26</f>
+        <v>59.931182795</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="false">homogeneidad!E26</f>
+        <v>0.00215053000000154</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">homogeneidad!F26</f>
+        <v>0.0317204249999961</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">homogeneidad!B27</f>
+        <v>59.89354839</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">homogeneidad!C27</f>
+        <v>59.90752688</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">homogeneidad!D27</f>
+        <v>59.900537635</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">homogeneidad!E27</f>
+        <v>0.0139784899999995</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">homogeneidad!F27</f>
+        <v>0.00698924499999265</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <f aca="false">homogeneidad!B28</f>
+        <v>59.87849462</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <f aca="false">homogeneidad!C28</f>
+        <v>59.87204301</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">homogeneidad!D28</f>
+        <v>59.875268815</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">homogeneidad!E28</f>
+        <v>0.00645160999999916</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">homogeneidad!F28</f>
         <v>0.0284946250000075</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <f aca="false">AVERAGE(B15:C24)</f>
-        <v>59.899784946</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>59.8483871</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>59.81935484</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <f aca="false">AVERAGE(B30,C30)</f>
-        <v>59.83387097</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">ABS(B30-C30)</f>
-        <v>0.0290322599999939</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>59.84946237</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>59.93333333</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <f aca="false">AVERAGE(B31,C31)</f>
-        <v>59.89139785</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">ABS(B31-C31)</f>
-        <v>0.0838709600000058</v>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="8" t="n">
-        <f aca="false">AVERAGE(B30:C31)</f>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>59.8483871</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>59.81935484</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <f aca="false">AVERAGE(B34,C34)</f>
+        <v>59.83387097</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <f aca="false">ABS(B34-C34)</f>
+        <v>0.0290322599999939</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>59.84946237</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>59.93333333</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <f aca="false">AVERAGE(B35,C35)</f>
+        <v>59.89139785</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">ABS(B35-C35)</f>
+        <v>0.0838709600000058</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <f aca="false">AVERAGE(B34:C35)</f>
         <v>59.86263441</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="n">
-        <f aca="false">ABS(D32-D25)</f>
-        <v>0.0371505359999986</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="n">
-        <f aca="false">0.3*B11</f>
-        <v>0.00595662128214863</v>
+      <c r="D37" s="7" t="n">
+        <f aca="false">AVERAGE(B34:C35)</f>
+        <v>59.86263441</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="str">
-        <f aca="false">IF(B36&lt;=B37,"PASS","FAIL")</f>
-        <v>FAIL</v>
+      <c r="B38" s="10" t="n">
+        <f aca="false">AVERAGE(B19:C28)</f>
+        <v>59.899784946</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <f aca="false">AVERAGE(B19:C28)</f>
+        <v>59.899784946</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,30 +2224,73 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="n">
-        <f aca="false">B36/SQRT(3)</f>
+      <c r="B41" s="10" t="n">
+        <f aca="false">ABS(B37-B38)</f>
+        <v>0.0371505359999986</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <f aca="false">ABS(D37-D38)</f>
+        <v>0.0371505359999986</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <f aca="false">0.3*B10</f>
+        <v>0.0150691923284977</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <f aca="false">0.3*D12</f>
+        <v>0.00777169375762535</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f aca="false">IF(B41&lt;=B42,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f aca="false">IF(D41&lt;=D42,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <f aca="false">B41/SQRT(3)</f>
         <v>0.0214488719601381</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="8"/>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -2035,8 +2313,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2048,7 +2326,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2058,7 +2336,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2068,17 +2346,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="9" t="n">
         <f aca="false">ABS(A5-B20)</f>
         <v>0.0122580600000006</v>
       </c>
@@ -2087,7 +2365,7 @@
       <c r="A6" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="9" t="n">
         <f aca="false">ABS(A6-B20)</f>
         <v>0.00731182999999902</v>
       </c>
@@ -2096,7 +2374,7 @@
       <c r="A7" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">ABS(A7-B20)</f>
         <v>0.0124731200000028</v>
       </c>
@@ -2105,7 +2383,7 @@
       <c r="A8" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">ABS(A8-B20)</f>
         <v>0.0102150600000002</v>
       </c>
@@ -2114,7 +2392,7 @@
       <c r="A9" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">ABS(A9-B20)</f>
         <v>0.00268816999999899</v>
       </c>
@@ -2123,7 +2401,7 @@
       <c r="A10" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="9" t="n">
         <f aca="false">ABS(A10-B20)</f>
         <v>0.0026881700000061</v>
       </c>
@@ -2132,7 +2410,7 @@
       <c r="A11" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="9" t="n">
         <f aca="false">ABS(A11-B20)</f>
         <v>0.0137634400000053</v>
       </c>
@@ -2141,7 +2419,7 @@
       <c r="A12" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="9" t="n">
         <f aca="false">ABS(A12-B20)</f>
         <v>0.00537634999999881</v>
       </c>
@@ -2150,7 +2428,7 @@
       <c r="A13" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="9" t="n">
         <f aca="false">ABS(A13-B20)</f>
         <v>0.0218279500000023</v>
       </c>
@@ -2159,7 +2437,7 @@
       <c r="A14" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="9" t="n">
         <f aca="false">ABS(A14-B20)</f>
         <v>0.0134408599999958</v>
       </c>
@@ -2168,7 +2446,7 @@
       <c r="A15" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="9" t="n">
         <f aca="false">ABS(A15-B20)</f>
         <v>0.0296774200000058</v>
       </c>
@@ -2177,19 +2455,19 @@
       <c r="A16" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="9" t="n">
         <f aca="false">ABS(A16-B20)</f>
         <v>0.00752688000000035</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">COUNT(A5:A16)</f>
@@ -2198,16 +2476,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B20" s="10" t="n">
         <f aca="false">MEDIAN(A5:A16)</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="e">
         <f aca="false">quartile.inc(A5:A16,1)</f>
@@ -2216,7 +2494,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="e">
         <f aca="false">quartile.inc(A5:A16,3)</f>
@@ -2225,7 +2503,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="e">
         <f aca="false">B22-B21</f>
@@ -2234,19 +2512,19 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="8" t="e">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10" t="e">
         <f aca="false">0.7413*B23</f>
         <v>#NAME?</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="n">
         <f aca="false">MEDIAN(B5:B16)</f>
@@ -2255,24 +2533,24 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B26" s="10" t="n">
         <f aca="false">1.483*B25</f>
         <v>0.0166638184800006</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">AVERAGE(A5:A16)</f>
@@ -2281,7 +2559,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="e">
         <f aca="false">stdev.s(A5:A16)</f>
@@ -2310,7 +2588,7 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2326,7 +2604,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2338,7 +2616,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2350,12 +2628,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>12</v>
@@ -2363,48 +2641,48 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1.483</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>1.134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>69</v>
+      <c r="A11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,7 +2692,7 @@
       <c r="B12" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="9" t="n">
         <f aca="false">ABS(B12-B26)</f>
         <v>0.0122580600000006</v>
       </c>
@@ -2426,7 +2704,7 @@
       <c r="B13" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="9" t="n">
         <f aca="false">ABS(B13-B26)</f>
         <v>0.00731182999999902</v>
       </c>
@@ -2438,7 +2716,7 @@
       <c r="B14" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="9" t="n">
         <f aca="false">ABS(B14-B26)</f>
         <v>0.0124731200000028</v>
       </c>
@@ -2450,7 +2728,7 @@
       <c r="B15" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="9" t="n">
         <f aca="false">ABS(B15-B26)</f>
         <v>0.0102150600000002</v>
       </c>
@@ -2462,7 +2740,7 @@
       <c r="B16" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="9" t="n">
         <f aca="false">ABS(B16-B26)</f>
         <v>0.00268816999999899</v>
       </c>
@@ -2474,7 +2752,7 @@
       <c r="B17" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="9" t="n">
         <f aca="false">ABS(B17-B26)</f>
         <v>0.0026881700000061</v>
       </c>
@@ -2486,7 +2764,7 @@
       <c r="B18" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="9" t="n">
         <f aca="false">ABS(B18-B26)</f>
         <v>0.0137634400000053</v>
       </c>
@@ -2498,7 +2776,7 @@
       <c r="B19" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="9" t="n">
         <f aca="false">ABS(B19-B26)</f>
         <v>0.00537634999999881</v>
       </c>
@@ -2510,7 +2788,7 @@
       <c r="B20" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="9" t="n">
         <f aca="false">ABS(B20-B26)</f>
         <v>0.0218279500000023</v>
       </c>
@@ -2522,7 +2800,7 @@
       <c r="B21" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="9" t="n">
         <f aca="false">ABS(B21-B26)</f>
         <v>0.0134408599999958</v>
       </c>
@@ -2534,7 +2812,7 @@
       <c r="B22" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="9" t="n">
         <f aca="false">ABS(B22-B26)</f>
         <v>0.0296774200000058</v>
       </c>
@@ -2546,28 +2824,28 @@
       <c r="B23" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="9" t="n">
         <f aca="false">ABS(B23-B26)</f>
         <v>0.00752688000000035</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B26" s="10" t="n">
         <f aca="false">MEDIAN(B12:B23)</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">MEDIAN(C12:C23)</f>
@@ -2576,72 +2854,72 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="8" t="n">
+        <v>76</v>
+      </c>
+      <c r="B28" s="10" t="n">
         <f aca="false">B26</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="8" t="n">
+        <v>77</v>
+      </c>
+      <c r="B29" s="10" t="n">
         <f aca="false">B6*B27</f>
         <v>0.0166638184800006</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <f aca="false">B7*B29</f>
         <v>0.0249957277200009</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <f aca="false">B28-B30</f>
         <v>59.86543438228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="B32" s="10" t="n">
         <f aca="false">B28+B30</f>
         <v>59.91542583772</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>81</v>
+      <c r="A36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,19 +2929,19 @@
       <c r="B37" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="9" t="n">
         <f aca="false">IF(B37&lt;B31,B31,IF(B37&gt;B32,B32,B37))</f>
         <v>59.90268817</v>
       </c>
-      <c r="F37" s="7" t="n">
+      <c r="F37" s="9" t="n">
         <f aca="false">(E37-B49)^2</f>
         <v>7.75124736258332E-005</v>
       </c>
@@ -2675,19 +2953,19 @@
       <c r="B38" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="9" t="n">
         <f aca="false">IF(B38&lt;B31,B31,IF(B38&gt;B32,B32,B38))</f>
         <v>59.88311828</v>
       </c>
-      <c r="F38" s="7" t="n">
+      <c r="F38" s="9" t="n">
         <f aca="false">(E38-B49)^2</f>
         <v>0.000115901871373721</v>
       </c>
@@ -2699,19 +2977,19 @@
       <c r="B39" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="9" t="n">
         <f aca="false">IF(B39&lt;B31,B31,IF(B39&gt;B32,B32,B39))</f>
         <v>59.90290323</v>
       </c>
-      <c r="F39" s="7" t="n">
+      <c r="F39" s="9" t="n">
         <f aca="false">(E39-B49)^2</f>
         <v>8.13455511718613E-005</v>
       </c>
@@ -2723,19 +3001,19 @@
       <c r="B40" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="9" t="n">
         <f aca="false">IF(B40&lt;B31,B31,IF(B40&gt;B32,B32,B40))</f>
         <v>59.88021505</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F40" s="9" t="n">
         <f aca="false">(E40-B49)^2</f>
         <v>0.000186841646932492</v>
       </c>
@@ -2747,19 +3025,19 @@
       <c r="B41" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="9" t="n">
         <f aca="false">IF(B41&lt;B31,B31,IF(B41&gt;B32,B32,B41))</f>
         <v>59.88774194</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F41" s="9" t="n">
         <f aca="false">(E41-B49)^2</f>
         <v>3.77255538655096E-005</v>
       </c>
@@ -2771,19 +3049,19 @@
       <c r="B42" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="9" t="n">
         <f aca="false">IF(B42&lt;B31,B31,IF(B42&gt;B32,B32,B42))</f>
         <v>59.89311828</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="9" t="n">
         <f aca="false">(E42-B49)^2</f>
         <v>5.86408507043019E-007</v>
       </c>
@@ -2795,19 +3073,19 @@
       <c r="B43" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="9" t="n">
         <f aca="false">IF(B43&lt;B31,B31,IF(B43&gt;B32,B32,B43))</f>
         <v>59.90419355</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="F43" s="9" t="n">
         <f aca="false">(E43-B49)^2</f>
         <v>0.000106285725437706</v>
       </c>
@@ -2819,19 +3097,19 @@
       <c r="B44" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="9" t="n">
         <f aca="false">IF(B44&lt;B31,B31,IF(B44&gt;B32,B32,B44))</f>
         <v>59.88505376</v>
       </c>
-      <c r="F44" s="7" t="n">
+      <c r="F44" s="9" t="n">
         <f aca="false">(E44-B49)^2</f>
         <v>7.79740769971987E-005</v>
       </c>
@@ -2843,19 +3121,19 @@
       <c r="B45" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="9" t="n">
         <f aca="false">IF(B45&lt;B31,B31,IF(B45&gt;B32,B32,B45))</f>
         <v>59.91225806</v>
       </c>
-      <c r="F45" s="7" t="n">
+      <c r="F45" s="9" t="n">
         <f aca="false">(E45-B49)^2</f>
         <v>0.000337604127968875</v>
       </c>
@@ -2867,19 +3145,19 @@
       <c r="B46" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="9" t="n">
         <f aca="false">IF(B46&lt;B31,B31,IF(B46&gt;B32,B32,B46))</f>
         <v>59.87698925</v>
       </c>
-      <c r="F46" s="7" t="n">
+      <c r="F46" s="9" t="n">
         <f aca="false">(E46-B49)^2</f>
         <v>0.000285434373251882</v>
       </c>
@@ -2891,19 +3169,19 @@
       <c r="B47" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="9" t="n">
         <f aca="false">IF(B47&lt;B31,B31,IF(B47&gt;B32,B32,B47))</f>
         <v>59.91542583772</v>
       </c>
-      <c r="F47" s="7" t="n">
+      <c r="F47" s="9" t="n">
         <f aca="false">(E47-B49)^2</f>
         <v>0.000464048482747634</v>
       </c>
@@ -2915,58 +3193,58 @@
       <c r="B48" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="9" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="9" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="9" t="n">
         <f aca="false">IF(B48&lt;B31,B31,IF(B48&gt;B32,B32,B48))</f>
         <v>59.88290323</v>
       </c>
-      <c r="F48" s="7" t="n">
+      <c r="F48" s="9" t="n">
         <f aca="false">(E48-B49)^2</f>
         <v>0.000120578476905198</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="8" t="n">
+        <v>86</v>
+      </c>
+      <c r="B49" s="10" t="n">
         <f aca="false">AVERAGE(E37:E48)</f>
         <v>59.8938840531433</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="B50" s="10" t="n">
         <f aca="false">SUM(F37:F48)</f>
         <v>0.00189183876878495</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="8" t="n">
+        <v>88</v>
+      </c>
+      <c r="B51" s="10" t="n">
         <f aca="false">B8*SQRT(F50/(B5-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="n">
         <f aca="false">ABS(B49-B28)</f>
@@ -2975,7 +3253,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="false">ABS(B51-B29)</f>
@@ -2984,36 +3262,36 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="8" t="e">
+        <v>92</v>
+      </c>
+      <c r="B56" s="10" t="e">
         <f aca="false">IF(ROUND(B28,2-INT(LOG10(ABS(B28))))=ROUND(B49,2-INT(LOG10(ABS(B49)))),ROUND(B29,2-INT(LOG10(ABS(B29))))=ROUND(B51,2-INT(LOG10(ABS(B51)))),"YES","NO")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,131 +3307,131 @@
         <v>0.0166638184800006</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="8" t="n">
+      <c r="B62" s="10" t="n">
         <f aca="false">B49</f>
         <v>59.8938840531433</v>
       </c>
-      <c r="C62" s="8" t="n">
+      <c r="C62" s="10" t="n">
         <f aca="false">B51</f>
         <v>0</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="10" t="n">
         <f aca="false">B54</f>
         <v>0.00345394314333447</v>
       </c>
-      <c r="E62" s="8" t="n">
+      <c r="E62" s="10" t="n">
         <f aca="false">B55</f>
         <v>0.0166638184800006</v>
       </c>
-      <c r="F62" s="8" t="e">
+      <c r="F62" s="10" t="e">
         <f aca="false">B56</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="8" t="n">
+        <v>102</v>
+      </c>
+      <c r="B66" s="10" t="n">
         <f aca="false">B49</f>
         <v>59.8938840531433</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="8" t="n">
+        <v>103</v>
+      </c>
+      <c r="B67" s="10" t="n">
         <f aca="false">B51</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B68" s="10" t="n">
         <f aca="false">B5</f>
         <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3456,7 @@
   </sheetPr>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3194,7 +3472,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3208,7 +3486,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3221,27 +3499,27 @@
       <c r="J2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>120</v>
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3527,7 @@
         <v>4.028347143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">COUNT(A6:A17)</f>
@@ -3261,14 +3539,14 @@
         <v>4.021748247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="n">
         <f aca="false">MEDIAN(A6:A17)</f>
         <v>4.025480909</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,14 +3554,14 @@
         <v>4.023195779</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">AVERAGE(A6:A17)</f>
         <v>4.0245246555</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,14 +3569,14 @@
         <v>4.025554913</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="e">
         <f aca="false">stdev.s(A6:A17)</f>
         <v>#NAME?</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,7 +3584,7 @@
         <v>4.02804855</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="e">
         <f aca="false">quartile.inc(A6:A17,1)</f>
@@ -3318,7 +3596,7 @@
         <v>4.027986407</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1" t="e">
         <f aca="false">quartile.inc(A6:A17,3)</f>
@@ -3330,14 +3608,14 @@
         <v>4.025817987</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="e">
         <f aca="false">D11-D10</f>
         <v>#NAME?</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,14 +3623,14 @@
         <v>4.018397381</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="8" t="e">
+        <v>133</v>
+      </c>
+      <c r="D13" s="10" t="e">
         <f aca="false">0.7413*D12</f>
         <v>#NAME?</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,13 +3638,13 @@
         <v>4.026595758</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,27 +3663,27 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>120</v>
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3691,7 @@
         <v>120.4113439</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">COUNT(A22:A33)</f>
@@ -3425,14 +3703,14 @@
         <v>120.3347036</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10" t="n">
         <f aca="false">MEDIAN(A22:A33)</f>
         <v>120.34772725</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,14 +3718,14 @@
         <v>120.3452569</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">AVERAGE(A22:A33)</f>
         <v>120.3559025</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,14 +3733,14 @@
         <v>120.3319368</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="e">
         <f aca="false">stdev.s(A22:A33)</f>
         <v>#NAME?</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3748,7 @@
         <v>120.3276285</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1" t="e">
         <f aca="false">quartile.inc(A22:A33,1)</f>
@@ -3482,7 +3760,7 @@
         <v>120.367747</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="e">
         <f aca="false">quartile.inc(A22:A33,3)</f>
@@ -3494,14 +3772,14 @@
         <v>120.3851383</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="e">
         <f aca="false">D27-D26</f>
         <v>#NAME?</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,14 +3787,14 @@
         <v>120.3326087</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="8" t="e">
+        <v>133</v>
+      </c>
+      <c r="D29" s="10" t="e">
         <f aca="false">0.7413*D28</f>
         <v>#NAME?</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,13 +3802,13 @@
         <v>120.3652964</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,27 +3827,27 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>120</v>
+      <c r="A37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,7 +3855,7 @@
         <v>65.09426374</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">COUNT(A38:A49)</f>
@@ -3589,14 +3867,14 @@
         <v>64.88535165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D39" s="10" t="n">
         <f aca="false">MEDIAN(A38:A49)</f>
         <v>64.93953297</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,14 +3882,14 @@
         <v>64.84454945</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">AVERAGE(A38:A49)</f>
         <v>64.9606978041667</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,14 +3897,14 @@
         <v>64.9377033</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1" t="e">
         <f aca="false">stdev.s(A38:A49)</f>
         <v>#NAME?</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3912,7 @@
         <v>65.02823077</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1" t="e">
         <f aca="false">quartile.inc(A38:A49,1)</f>
@@ -3646,7 +3924,7 @@
         <v>65.05642857</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="e">
         <f aca="false">quartile.inc(A38:A49,3)</f>
@@ -3658,14 +3936,14 @@
         <v>64.99881319</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="e">
         <f aca="false">D43-D42</f>
         <v>#NAME?</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,14 +3951,14 @@
         <v>64.93223077</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="8" t="e">
+        <v>133</v>
+      </c>
+      <c r="D45" s="10" t="e">
         <f aca="false">0.7413*D44</f>
         <v>#NAME?</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,13 +3966,13 @@
         <v>64.90646154</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,27 +3991,27 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>120</v>
+      <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +4019,7 @@
         <v>80.00558399</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D54" s="1" t="n">
         <f aca="false">COUNT(A54:A65)</f>
@@ -3753,14 +4031,14 @@
         <v>79.99473044</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D55" s="10" t="n">
         <f aca="false">MEDIAN(A54:A65)</f>
         <v>80.101362685</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,14 +4046,14 @@
         <v>80.18835654</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1" t="n">
         <f aca="false">AVERAGE(A54:A65)</f>
         <v>80.1330451616667</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,14 +4061,14 @@
         <v>80.19802471</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1" t="e">
         <f aca="false">stdev.s(A54:A65)</f>
         <v>#NAME?</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +4076,7 @@
         <v>80.09170218</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1" t="e">
         <f aca="false">quartile.inc(A54:A65,1)</f>
@@ -3810,7 +4088,7 @@
         <v>80.32563662</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D59" s="1" t="e">
         <f aca="false">quartile.inc(A54:A65,3)</f>
@@ -3822,14 +4100,14 @@
         <v>79.75691729</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1" t="e">
         <f aca="false">D59-D58</f>
         <v>#NAME?</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,14 +4115,14 @@
         <v>80.33274862</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="8" t="e">
+        <v>133</v>
+      </c>
+      <c r="D61" s="10" t="e">
         <f aca="false">0.7413*D60</f>
         <v>#NAME?</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,13 +4130,13 @@
         <v>80.42394944</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,27 +4155,27 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="A68" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>120</v>
+      <c r="A69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +4183,7 @@
         <v>59.90268817</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="n">
         <f aca="false">COUNT(A70:A81)</f>
@@ -3917,14 +4195,14 @@
         <v>59.88311828</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D71" s="10" t="n">
         <f aca="false">MEDIAN(A70:A81)</f>
         <v>59.89043011</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,14 +4210,14 @@
         <v>59.90290323</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D72" s="1" t="n">
         <f aca="false">AVERAGE(A70:A81)</f>
         <v>59.8942741941667</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,14 +4225,14 @@
         <v>59.88021505</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="e">
         <f aca="false">stdev.s(A70:A81)</f>
         <v>#NAME?</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,7 +4240,7 @@
         <v>59.88774194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D74" s="1" t="e">
         <f aca="false">quartile.inc(A70:A81,1)</f>
@@ -3974,7 +4252,7 @@
         <v>59.89311828</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D75" s="1" t="e">
         <f aca="false">quartile.inc(A70:A81,3)</f>
@@ -3986,14 +4264,14 @@
         <v>59.90419355</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D76" s="1" t="e">
         <f aca="false">D75-D74</f>
         <v>#NAME?</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,14 +4279,14 @@
         <v>59.88505376</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="8" t="e">
+        <v>133</v>
+      </c>
+      <c r="D77" s="10" t="e">
         <f aca="false">0.7413*D76</f>
         <v>#NAME?</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,13 +4294,13 @@
         <v>59.91225806</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,38 +4320,38 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>129</v>
+      <c r="A85" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>12</v>
@@ -4093,10 +4371,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>12</v>
@@ -4116,10 +4394,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>12</v>
@@ -4139,10 +4417,10 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>12</v>
@@ -4162,10 +4440,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>12</v>
@@ -4210,7 +4488,7 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4229,7 +4507,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4243,7 +4521,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4257,12 +4535,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>59.9</v>
@@ -4270,7 +4548,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.6</v>
@@ -4278,7 +4556,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0.1</v>
@@ -4286,7 +4564,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0.05</v>
@@ -4294,7 +4572,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0.03</v>
@@ -4302,65 +4580,65 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="8" t="n">
+        <v>161</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <f aca="false">SQRT(B7^2+B8^2+B9^2)</f>
         <v>0.115758369027902</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="8" t="n">
+        <v>163</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <f aca="false">2*B10</f>
         <v>0.231516738055805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>171</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>59.95</v>
@@ -4371,34 +4649,34 @@
       <c r="D15" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="9" t="n">
         <f aca="false">(B15-$B$5)/$B$6</f>
         <v>0.0833333333333405</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="9" t="n">
         <f aca="false">(B15-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0.0818244034143197</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="9" t="n">
         <f aca="false">(B15-$B$5)/SQRT(C15^2+$B$10^2)</f>
         <v>0.263889906984652</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="9" t="n">
         <f aca="false">(B15-$B$5)/SQRT(D15^2+$B$11^2)</f>
         <v>0.131944953492326</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="9" t="str">
         <f aca="false">IF(ABS(E15)&lt;=2,"Satisfactorio",IF(ABS(E15)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="J15" s="9" t="str">
         <f aca="false">IF(ABS(H15)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>59.8</v>
@@ -4409,34 +4687,34 @@
       <c r="D16" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="9" t="n">
         <f aca="false">(B16-$B$5)/$B$6</f>
         <v>-0.166666666666669</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="9" t="n">
         <f aca="false">(B16-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>-0.163648806828628</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="9" t="n">
         <f aca="false">(B16-$B$5)/SQRT(C16^2+$B$10^2)</f>
         <v>-0.432742322407922</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="9" t="n">
         <f aca="false">(B16-$B$5)/SQRT(D16^2+$B$11^2)</f>
         <v>-0.216371161203961</v>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="9" t="str">
         <f aca="false">IF(ABS(E16)&lt;=2,"Satisfactorio",IF(ABS(E16)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="J16" s="9" t="str">
         <f aca="false">IF(ABS(H16)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>60.5</v>
@@ -4447,34 +4725,34 @@
       <c r="D17" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="9" t="n">
         <f aca="false">(B17-$B$5)/$B$6</f>
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="9" t="n">
         <f aca="false">(B17-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0.981892840971755</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="9" t="n">
         <f aca="false">(B17-$B$5)/SQRT(C17^2+$B$10^2)</f>
         <v>3.92232270276369</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="9" t="n">
         <f aca="false">(B17-$B$5)/SQRT(D17^2+$B$11^2)</f>
         <v>1.96116135138184</v>
       </c>
-      <c r="I17" s="7" t="str">
+      <c r="I17" s="9" t="str">
         <f aca="false">IF(ABS(E17)&lt;=2,"Satisfactorio",IF(ABS(E17)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="J17" s="9" t="str">
         <f aca="false">IF(ABS(H17)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>No satisfactorio</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>59.9</v>
@@ -4485,34 +4763,34 @@
       <c r="D18" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="9" t="n">
         <f aca="false">(B18-$B$5)/$B$6</f>
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="9" t="n">
         <f aca="false">(B18-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="9" t="n">
         <f aca="false">(B18-$B$5)/SQRT(C18^2+$B$10^2)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="9" t="n">
         <f aca="false">(B18-$B$5)/SQRT(D18^2+$B$11^2)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="9" t="str">
         <f aca="false">IF(ABS(E18)&lt;=2,"Satisfactorio",IF(ABS(E18)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="J18" s="9" t="str">
         <f aca="false">IF(ABS(H18)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>58.5</v>
@@ -4523,95 +4801,95 @@
       <c r="D19" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="9" t="n">
         <f aca="false">(B19-$B$5)/$B$6</f>
         <v>-2.33333333333333</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="9" t="n">
         <f aca="false">(B19-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>-2.29108329560075</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="9" t="n">
         <f aca="false">(B19-$B$5)/SQRT(C19^2+$B$10^2)</f>
         <v>-4.35379289499786</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="9" t="n">
         <f aca="false">(B19-$B$5)/SQRT(D19^2+$B$11^2)</f>
         <v>-2.17689644749893</v>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="9" t="str">
         <f aca="false">IF(ABS(E19)&lt;=2,"Satisfactorio",IF(ABS(E19)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Cuestionable</v>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="9" t="str">
         <f aca="false">IF(ABS(H19)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>No satisfactorio</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/validation/validation_calculations.xlsx
+++ b/validation/validation_calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="homogeneidad" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t xml:space="preserve">HOMOGENEITY VALIDATION - SO2 60-nmol/mol</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t xml:space="preserve">ss ≤ c ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2</t>
   </si>
   <si>
     <t xml:space="preserve">STABILITY VALIDATION - SO2 60-nmol/mol</t>
@@ -607,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -654,12 +666,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -673,12 +679,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -754,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -779,19 +779,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,12 +795,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1063,20 +1059,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1106,6 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1117,6 @@
       <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="0"/>
       <c r="D5" s="1" t="n">
         <f aca="false">B5</f>
         <v>10</v>
@@ -1135,7 +1129,6 @@
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0"/>
       <c r="D6" s="1" t="n">
         <f aca="false">B6</f>
         <v>2</v>
@@ -1149,7 +1142,6 @@
         <f aca="false">MEDIAN(B19:B28)</f>
         <v>59.900537635</v>
       </c>
-      <c r="C7" s="0"/>
       <c r="D7" s="6" t="n">
         <f aca="false">MEDIAN(B19:B28)</f>
         <v>59.900537635</v>
@@ -1220,69 +1212,49 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">D11</f>
         <v>0.0259056458587512</v>
       </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="6" t="n">
         <f aca="false">1.25*D11/SQRT(D5)</f>
         <v>0.0102401056464203</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1296,15 +1268,15 @@
       <c r="C19" s="1" t="n">
         <v>59.83870968</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="8" t="n">
         <f aca="false">AVERAGE(B19,C19)</f>
         <v>59.86827957</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="8" t="n">
         <f aca="false">ABS(B19-C19)</f>
         <v>0.0591397800000024</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">ABS(C19-$B$7)</f>
         <v>0.0618279550000054</v>
       </c>
@@ -1319,15 +1291,15 @@
       <c r="C20" s="1" t="n">
         <v>59.93655914</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="8" t="n">
         <f aca="false">AVERAGE(B20,C20)</f>
         <v>59.87580645</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="8" t="n">
         <f aca="false">ABS(B20-C20)</f>
         <v>0.121505380000002</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="8" t="n">
         <f aca="false">ABS(C20-$B$7)</f>
         <v>0.0360215049999937</v>
       </c>
@@ -1342,15 +1314,15 @@
       <c r="C21" s="1" t="n">
         <v>59.94623656</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="8" t="n">
         <f aca="false">AVERAGE(B21,C21)</f>
         <v>59.924731185</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="8" t="n">
         <f aca="false">ABS(B21-C21)</f>
         <v>0.0430107500000005</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="8" t="n">
         <f aca="false">ABS(C21-$B$7)</f>
         <v>0.0456989249999964</v>
       </c>
@@ -1365,15 +1337,15 @@
       <c r="C22" s="1" t="n">
         <v>59.90215054</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="8" t="n">
         <f aca="false">AVERAGE(B22,C22)</f>
         <v>59.88763441</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="8" t="n">
         <f aca="false">ABS(B22-C22)</f>
         <v>0.029032260000001</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="8" t="n">
         <f aca="false">ABS(C22-$B$7)</f>
         <v>0.00161290499999467</v>
       </c>
@@ -1388,15 +1360,15 @@
       <c r="C23" s="1" t="n">
         <v>59.91182796</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="8" t="n">
         <f aca="false">AVERAGE(B23,C23)</f>
         <v>59.919892475</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="8" t="n">
         <f aca="false">ABS(B23-C23)</f>
         <v>0.0161290300000019</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="8" t="n">
         <f aca="false">ABS(C23-$B$7)</f>
         <v>0.0112903249999903</v>
       </c>
@@ -1411,15 +1383,15 @@
       <c r="C24" s="1" t="n">
         <v>59.96344086</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="8" t="n">
         <f aca="false">AVERAGE(B24,C24)</f>
         <v>59.938709675</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="8" t="n">
         <f aca="false">ABS(B24-C24)</f>
         <v>0.0494623700000005</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="8" t="n">
         <f aca="false">ABS(C24-$B$7)</f>
         <v>0.0629032249999924</v>
       </c>
@@ -1434,15 +1406,15 @@
       <c r="C25" s="1" t="n">
         <v>59.83333333</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="8" t="n">
         <f aca="false">AVERAGE(B25,C25)</f>
         <v>59.87580645</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="8" t="n">
         <f aca="false">ABS(B25-C25)</f>
         <v>0.0849462400000007</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="8" t="n">
         <f aca="false">ABS(C25-$B$7)</f>
         <v>0.0672043050000042</v>
       </c>
@@ -1457,15 +1429,15 @@
       <c r="C26" s="1" t="n">
         <v>59.93225806</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="8" t="n">
         <f aca="false">AVERAGE(B26,C26)</f>
         <v>59.931182795</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="8" t="n">
         <f aca="false">ABS(B26-C26)</f>
         <v>0.00215053000000154</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="8" t="n">
         <f aca="false">ABS(C26-$B$7)</f>
         <v>0.0317204249999961</v>
       </c>
@@ -1480,15 +1452,15 @@
       <c r="C27" s="1" t="n">
         <v>59.90752688</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="8" t="n">
         <f aca="false">AVERAGE(B27,C27)</f>
         <v>59.900537635</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="8" t="n">
         <f aca="false">ABS(B27-C27)</f>
         <v>0.0139784899999995</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="8" t="n">
         <f aca="false">ABS(C27-$B$7)</f>
         <v>0.00698924499999265</v>
       </c>
@@ -1503,15 +1475,15 @@
       <c r="C28" s="1" t="n">
         <v>59.87204301</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="8" t="n">
         <f aca="false">AVERAGE(B28,C28)</f>
         <v>59.875268815</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="8" t="n">
         <f aca="false">ABS(B28-C28)</f>
         <v>0.00645160999999916</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="8" t="n">
         <f aca="false">ABS(C28-$B$7)</f>
         <v>0.0284946250000075</v>
       </c>
@@ -1525,7 +1497,7 @@
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="9" t="n">
         <f aca="false">AVERAGE(D19:D28)</f>
         <v>59.899784946</v>
       </c>
@@ -1538,7 +1510,7 @@
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="9" t="n">
         <f aca="false">_xlfn.STDEV.S(D19:D28)</f>
         <v>0.0267069591743292</v>
       </c>
@@ -1555,7 +1527,7 @@
         <f aca="false">SQRT(SUMSQ(E19:E28)/(2*COUNT(E19:E28)))</f>
         <v>0.0394449294980436</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="10" t="n">
         <f aca="false">SQRT(SUMSQ(E19:E28)/(2*COUNT(E19:E28)))</f>
         <v>0.0394449294980435</v>
       </c>
@@ -1564,7 +1536,7 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="9" t="n">
         <f aca="false">SQRT(ABS((B32^2)-((B33^2)/2)))</f>
         <v>0.00804298223381903</v>
       </c>
@@ -1582,7 +1554,7 @@
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="9" t="n">
         <f aca="false">0.3*B10</f>
         <v>0.0150691923284977</v>
       </c>
@@ -1595,7 +1567,7 @@
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="9" t="str">
         <f aca="false">IF(B34&lt;=B36,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -1604,17 +1576,183 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <f aca="false">$B65*B36*B36+$C65*B33*B33</f>
+        <v>0.0019983729357112</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">$B65*D36*D36+$C65*D33*D33</f>
+        <v>0.00168501202859783</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C55" s="11" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B57" s="11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C57" s="11" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B59" s="11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C59" s="11" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" s="11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C61" s="11" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B63" s="11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C63" s="11" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C67" s="11" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>1.43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1638,8 +1776,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="1" sqref="D38 D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,7 +1790,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1662,7 +1800,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1671,157 +1809,157 @@
       <c r="F2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="str">
+      <c r="A4" s="6" t="str">
         <f aca="false">homogeneidad!A4</f>
         <v>Parameters</v>
       </c>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="6" t="str">
         <f aca="false">homogeneidad!B4</f>
         <v>MADe</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="str">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="str">
         <f aca="false">homogeneidad!D4</f>
         <v>NIQR</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="6" t="str">
         <f aca="false">homogeneidad!A5</f>
         <v>g (samples)</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="6" t="n">
         <f aca="false">homogeneidad!B5</f>
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="n">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="n">
         <f aca="false">homogeneidad!D5</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="str">
+      <c r="A6" s="6" t="str">
         <f aca="false">homogeneidad!A6</f>
         <v>m (replicates)</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="6" t="n">
         <f aca="false">homogeneidad!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="n">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="n">
         <f aca="false">homogeneidad!D6</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="str">
+      <c r="A7" s="6" t="str">
         <f aca="false">homogeneidad!A7</f>
         <v>valor asignado x_pt</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="6" t="n">
         <f aca="false">homogeneidad!B7</f>
         <v>59.900537635</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="n">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="n">
         <f aca="false">homogeneidad!D7</f>
         <v>59.900537635</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="6" t="str">
         <f aca="false">homogeneidad!A8</f>
         <v>mediana diferencias</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="6" t="n">
         <f aca="false">homogeneidad!B8</f>
         <v>0.0338709649999949</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="6" t="str">
         <f aca="false">homogeneidad!C8</f>
         <v>q1</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="6" t="n">
         <f aca="false">homogeneidad!D8</f>
         <v>59.8822580625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="str">
+      <c r="A9" s="6" t="str">
         <f aca="false">homogeneidad!A9</f>
         <v>desviacion</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="6" t="n">
         <f aca="false">homogeneidad!B9</f>
         <v>0.0502306410949924</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="6" t="str">
         <f aca="false">homogeneidad!C9</f>
         <v>q3</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="6" t="n">
         <f aca="false">homogeneidad!D9</f>
         <v>59.9172043</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="str">
+      <c r="A10" s="6" t="str">
         <f aca="false">homogeneidad!A10</f>
         <v>σ_pt</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="6" t="n">
         <f aca="false">homogeneidad!B10</f>
         <v>0.0502306410949924</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="6" t="str">
         <f aca="false">homogeneidad!C10</f>
         <v>ICR</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="6" t="n">
         <f aca="false">homogeneidad!D10</f>
         <v>0.0349462375000016</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="str">
+      <c r="A11" s="6" t="str">
         <f aca="false">homogeneidad!A11</f>
         <v>incertidumbre x_pt</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="6" t="n">
         <f aca="false">homogeneidad!B11</f>
         <v>0.0198554042738288</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="6" t="str">
         <f aca="false">homogeneidad!C11</f>
         <v>NIQR</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="6" t="n">
         <f aca="false">homogeneidad!D11</f>
         <v>0.0259056458587512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="str">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="str">
         <f aca="false">homogeneidad!C12</f>
         <v>σ_pt</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="6" t="n">
         <f aca="false">homogeneidad!D12</f>
         <v>0.0259056458587512</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="str">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="str">
         <f aca="false">homogeneidad!C13</f>
         <v>incertidumbre x_pt</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="6" t="n">
         <f aca="false">homogeneidad!D13</f>
         <v>0.0102401056464203</v>
       </c>
@@ -1840,31 +1978,31 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="7" t="str">
         <f aca="false">homogeneidad!A18</f>
         <v>Sample ID</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="7" t="str">
         <f aca="false">homogeneidad!B18</f>
         <v>replicate_1</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="7" t="str">
         <f aca="false">homogeneidad!C18</f>
         <v>replicate_2</v>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="7" t="str">
         <f aca="false">homogeneidad!D18</f>
         <v>promedio muestra xt</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="7" t="str">
         <f aca="false">homogeneidad!E18</f>
         <v>rango entre ensayos</v>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="7" t="str">
         <f aca="false">homogeneidad!F18</f>
         <v>desviacion vs xpt</v>
       </c>
@@ -2119,31 +2257,25 @@
         <v>0.0284946250000075</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2157,7 +2289,7 @@
       <c r="C34" s="1" t="n">
         <v>59.81935484</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="8" t="n">
         <f aca="false">AVERAGE(B34,C34)</f>
         <v>59.83387097</v>
       </c>
@@ -2176,7 +2308,7 @@
       <c r="C35" s="1" t="n">
         <v>59.93333333</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="8" t="n">
         <f aca="false">AVERAGE(B35,C35)</f>
         <v>59.89139785</v>
       </c>
@@ -2186,45 +2318,45 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="9"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9" t="n">
         <f aca="false">AVERAGE(B34:C35)</f>
         <v>59.86263441</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="6" t="n">
         <f aca="false">AVERAGE(B34:C35)</f>
         <v>59.86263441</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="n">
         <f aca="false">AVERAGE(B19:C28)</f>
         <v>59.899784946</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="6" t="n">
         <f aca="false">AVERAGE(B19:C28)</f>
         <v>59.899784946</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9" t="n">
         <f aca="false">ABS(B37-B38)</f>
         <v>0.0371505359999986</v>
       </c>
@@ -2235,9 +2367,9 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9" t="n">
         <f aca="false">0.3*B10</f>
         <v>0.0150691923284977</v>
       </c>
@@ -2248,9 +2380,9 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10" t="str">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9" t="str">
         <f aca="false">IF(B41&lt;=B42,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -2261,35 +2393,35 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B46" s="9" t="n">
         <f aca="false">B41/SQRT(3)</f>
         <v>0.0214488719601381</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2314,7 +2446,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="D38 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,7 +2458,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2336,7 +2468,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2346,17 +2478,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="8" t="n">
         <f aca="false">ABS(A5-B20)</f>
         <v>0.0122580600000006</v>
       </c>
@@ -2365,7 +2497,7 @@
       <c r="A6" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="8" t="n">
         <f aca="false">ABS(A6-B20)</f>
         <v>0.00731182999999902</v>
       </c>
@@ -2374,7 +2506,7 @@
       <c r="A7" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="8" t="n">
         <f aca="false">ABS(A7-B20)</f>
         <v>0.0124731200000028</v>
       </c>
@@ -2383,7 +2515,7 @@
       <c r="A8" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="8" t="n">
         <f aca="false">ABS(A8-B20)</f>
         <v>0.0102150600000002</v>
       </c>
@@ -2392,7 +2524,7 @@
       <c r="A9" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="8" t="n">
         <f aca="false">ABS(A9-B20)</f>
         <v>0.00268816999999899</v>
       </c>
@@ -2401,7 +2533,7 @@
       <c r="A10" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="8" t="n">
         <f aca="false">ABS(A10-B20)</f>
         <v>0.0026881700000061</v>
       </c>
@@ -2410,7 +2542,7 @@
       <c r="A11" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="8" t="n">
         <f aca="false">ABS(A11-B20)</f>
         <v>0.0137634400000053</v>
       </c>
@@ -2419,7 +2551,7 @@
       <c r="A12" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="8" t="n">
         <f aca="false">ABS(A12-B20)</f>
         <v>0.00537634999999881</v>
       </c>
@@ -2428,7 +2560,7 @@
       <c r="A13" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="8" t="n">
         <f aca="false">ABS(A13-B20)</f>
         <v>0.0218279500000023</v>
       </c>
@@ -2437,7 +2569,7 @@
       <c r="A14" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="8" t="n">
         <f aca="false">ABS(A14-B20)</f>
         <v>0.0134408599999958</v>
       </c>
@@ -2446,7 +2578,7 @@
       <c r="A15" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="8" t="n">
         <f aca="false">ABS(A15-B20)</f>
         <v>0.0296774200000058</v>
       </c>
@@ -2455,19 +2587,19 @@
       <c r="A16" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="8" t="n">
         <f aca="false">ABS(A16-B20)</f>
         <v>0.00752688000000035</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">COUNT(A5:A16)</f>
@@ -2476,16 +2608,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="n">
         <f aca="false">MEDIAN(A5:A16)</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="e">
         <f aca="false">quartile.inc(A5:A16,1)</f>
@@ -2494,7 +2626,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="e">
         <f aca="false">quartile.inc(A5:A16,3)</f>
@@ -2503,7 +2635,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="e">
         <f aca="false">B22-B21</f>
@@ -2512,19 +2644,19 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="10" t="e">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9" t="e">
         <f aca="false">0.7413*B23</f>
         <v>#NAME?</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="n">
         <f aca="false">MEDIAN(B5:B16)</f>
@@ -2533,24 +2665,24 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B26" s="9" t="n">
         <f aca="false">1.483*B25</f>
         <v>0.0166638184800006</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">AVERAGE(A5:A16)</f>
@@ -2559,7 +2691,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="e">
         <f aca="false">stdev.s(A5:A16)</f>
@@ -2589,7 +2721,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="D38 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2604,7 +2736,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2616,7 +2748,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2628,12 +2760,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>12</v>
@@ -2641,48 +2773,48 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1.483</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>1.134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
+      <c r="A11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2824,7 @@
       <c r="B12" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="8" t="n">
         <f aca="false">ABS(B12-B26)</f>
         <v>0.0122580600000006</v>
       </c>
@@ -2704,7 +2836,7 @@
       <c r="B13" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="8" t="n">
         <f aca="false">ABS(B13-B26)</f>
         <v>0.00731182999999902</v>
       </c>
@@ -2716,7 +2848,7 @@
       <c r="B14" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="8" t="n">
         <f aca="false">ABS(B14-B26)</f>
         <v>0.0124731200000028</v>
       </c>
@@ -2728,7 +2860,7 @@
       <c r="B15" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="8" t="n">
         <f aca="false">ABS(B15-B26)</f>
         <v>0.0102150600000002</v>
       </c>
@@ -2740,7 +2872,7 @@
       <c r="B16" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="8" t="n">
         <f aca="false">ABS(B16-B26)</f>
         <v>0.00268816999999899</v>
       </c>
@@ -2752,7 +2884,7 @@
       <c r="B17" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="8" t="n">
         <f aca="false">ABS(B17-B26)</f>
         <v>0.0026881700000061</v>
       </c>
@@ -2764,7 +2896,7 @@
       <c r="B18" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="8" t="n">
         <f aca="false">ABS(B18-B26)</f>
         <v>0.0137634400000053</v>
       </c>
@@ -2776,7 +2908,7 @@
       <c r="B19" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="8" t="n">
         <f aca="false">ABS(B19-B26)</f>
         <v>0.00537634999999881</v>
       </c>
@@ -2788,7 +2920,7 @@
       <c r="B20" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="8" t="n">
         <f aca="false">ABS(B20-B26)</f>
         <v>0.0218279500000023</v>
       </c>
@@ -2800,7 +2932,7 @@
       <c r="B21" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="8" t="n">
         <f aca="false">ABS(B21-B26)</f>
         <v>0.0134408599999958</v>
       </c>
@@ -2812,7 +2944,7 @@
       <c r="B22" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="8" t="n">
         <f aca="false">ABS(B22-B26)</f>
         <v>0.0296774200000058</v>
       </c>
@@ -2824,28 +2956,28 @@
       <c r="B23" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="8" t="n">
         <f aca="false">ABS(B23-B26)</f>
         <v>0.00752688000000035</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="n">
         <f aca="false">MEDIAN(B12:B23)</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">MEDIAN(C12:C23)</f>
@@ -2854,72 +2986,72 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" s="9" t="n">
         <f aca="false">B26</f>
         <v>59.89043011</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="B29" s="9" t="n">
         <f aca="false">B6*B27</f>
         <v>0.0166638184800006</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="B30" s="9" t="n">
         <f aca="false">B7*B29</f>
         <v>0.0249957277200009</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="B31" s="9" t="n">
         <f aca="false">B28-B30</f>
         <v>59.86543438228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="B32" s="9" t="n">
         <f aca="false">B28+B30</f>
         <v>59.91542583772</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>85</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,19 +3061,19 @@
       <c r="B37" s="1" t="n">
         <v>59.90268817</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="8" t="n">
         <f aca="false">IF(B37&lt;B31,B31,IF(B37&gt;B32,B32,B37))</f>
         <v>59.90268817</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="8" t="n">
         <f aca="false">(E37-B49)^2</f>
         <v>7.75124736258332E-005</v>
       </c>
@@ -2953,19 +3085,19 @@
       <c r="B38" s="1" t="n">
         <v>59.88311828</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="8" t="n">
         <f aca="false">IF(B38&lt;B31,B31,IF(B38&gt;B32,B32,B38))</f>
         <v>59.88311828</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="8" t="n">
         <f aca="false">(E38-B49)^2</f>
         <v>0.000115901871373721</v>
       </c>
@@ -2977,19 +3109,19 @@
       <c r="B39" s="1" t="n">
         <v>59.90290323</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E39" s="8" t="n">
         <f aca="false">IF(B39&lt;B31,B31,IF(B39&gt;B32,B32,B39))</f>
         <v>59.90290323</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="8" t="n">
         <f aca="false">(E39-B49)^2</f>
         <v>8.13455511718613E-005</v>
       </c>
@@ -3001,19 +3133,19 @@
       <c r="B40" s="1" t="n">
         <v>59.88021505</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E40" s="8" t="n">
         <f aca="false">IF(B40&lt;B31,B31,IF(B40&gt;B32,B32,B40))</f>
         <v>59.88021505</v>
       </c>
-      <c r="F40" s="9" t="n">
+      <c r="F40" s="8" t="n">
         <f aca="false">(E40-B49)^2</f>
         <v>0.000186841646932492</v>
       </c>
@@ -3025,19 +3157,19 @@
       <c r="B41" s="1" t="n">
         <v>59.88774194</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="8" t="n">
         <f aca="false">IF(B41&lt;B31,B31,IF(B41&gt;B32,B32,B41))</f>
         <v>59.88774194</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="8" t="n">
         <f aca="false">(E41-B49)^2</f>
         <v>3.77255538655096E-005</v>
       </c>
@@ -3049,19 +3181,19 @@
       <c r="B42" s="1" t="n">
         <v>59.89311828</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="8" t="n">
         <f aca="false">IF(B42&lt;B31,B31,IF(B42&gt;B32,B32,B42))</f>
         <v>59.89311828</v>
       </c>
-      <c r="F42" s="9" t="n">
+      <c r="F42" s="8" t="n">
         <f aca="false">(E42-B49)^2</f>
         <v>5.86408507043019E-007</v>
       </c>
@@ -3073,19 +3205,19 @@
       <c r="B43" s="1" t="n">
         <v>59.90419355</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="8" t="n">
         <f aca="false">IF(B43&lt;B31,B31,IF(B43&gt;B32,B32,B43))</f>
         <v>59.90419355</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="8" t="n">
         <f aca="false">(E43-B49)^2</f>
         <v>0.000106285725437706</v>
       </c>
@@ -3097,19 +3229,19 @@
       <c r="B44" s="1" t="n">
         <v>59.88505376</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="8" t="n">
         <f aca="false">IF(B44&lt;B31,B31,IF(B44&gt;B32,B32,B44))</f>
         <v>59.88505376</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="8" t="n">
         <f aca="false">(E44-B49)^2</f>
         <v>7.79740769971987E-005</v>
       </c>
@@ -3121,19 +3253,19 @@
       <c r="B45" s="1" t="n">
         <v>59.91225806</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="8" t="n">
         <f aca="false">IF(B45&lt;B31,B31,IF(B45&gt;B32,B32,B45))</f>
         <v>59.91225806</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="8" t="n">
         <f aca="false">(E45-B49)^2</f>
         <v>0.000337604127968875</v>
       </c>
@@ -3145,19 +3277,19 @@
       <c r="B46" s="1" t="n">
         <v>59.87698925</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="8" t="n">
         <f aca="false">IF(B46&lt;B31,B31,IF(B46&gt;B32,B32,B46))</f>
         <v>59.87698925</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="8" t="n">
         <f aca="false">(E46-B49)^2</f>
         <v>0.000285434373251882</v>
       </c>
@@ -3169,19 +3301,19 @@
       <c r="B47" s="1" t="n">
         <v>59.92010753</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="8" t="n">
         <f aca="false">IF(B47&lt;B31,B31,IF(B47&gt;B32,B32,B47))</f>
         <v>59.91542583772</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="8" t="n">
         <f aca="false">(E47-B49)^2</f>
         <v>0.000464048482747634</v>
       </c>
@@ -3193,58 +3325,58 @@
       <c r="B48" s="1" t="n">
         <v>59.88290323</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="8" t="n">
         <f aca="false">B31</f>
         <v>59.86543438228</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="8" t="n">
         <f aca="false">B32</f>
         <v>59.91542583772</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="8" t="n">
         <f aca="false">IF(B48&lt;B31,B31,IF(B48&gt;B32,B32,B48))</f>
         <v>59.88290323</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="8" t="n">
         <f aca="false">(E48-B49)^2</f>
         <v>0.000120578476905198</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="B49" s="9" t="n">
         <f aca="false">AVERAGE(E37:E48)</f>
         <v>59.8938840531433</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="B50" s="9" t="n">
         <f aca="false">SUM(F37:F48)</f>
         <v>0.00189183876878495</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="B51" s="9" t="n">
         <f aca="false">B8*SQRT(F50/(B5-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1" t="n">
         <f aca="false">ABS(B49-B28)</f>
@@ -3253,7 +3385,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="false">ABS(B51-B29)</f>
@@ -3262,36 +3394,36 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="10" t="e">
+        <v>96</v>
+      </c>
+      <c r="B56" s="9" t="e">
         <f aca="false">IF(ROUND(B28,2-INT(LOG10(ABS(B28))))=ROUND(B49,2-INT(LOG10(ABS(B49)))),ROUND(B29,2-INT(LOG10(ABS(B29))))=ROUND(B51,2-INT(LOG10(ABS(B51)))),"YES","NO")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,131 +3439,131 @@
         <v>0.0166638184800006</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="10" t="n">
+      <c r="B62" s="9" t="n">
         <f aca="false">B49</f>
         <v>59.8938840531433</v>
       </c>
-      <c r="C62" s="10" t="n">
+      <c r="C62" s="9" t="n">
         <f aca="false">B51</f>
         <v>0</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="9" t="n">
         <f aca="false">B54</f>
         <v>0.00345394314333447</v>
       </c>
-      <c r="E62" s="10" t="n">
+      <c r="E62" s="9" t="n">
         <f aca="false">B55</f>
         <v>0.0166638184800006</v>
       </c>
-      <c r="F62" s="10" t="e">
+      <c r="F62" s="9" t="e">
         <f aca="false">B56</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="B66" s="9" t="n">
         <f aca="false">B49</f>
         <v>59.8938840531433</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="B67" s="9" t="n">
         <f aca="false">B51</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" s="9" t="n">
         <f aca="false">B5</f>
         <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3589,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D38 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3472,7 +3604,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3486,7 +3618,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3499,27 +3631,27 @@
       <c r="J2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>124</v>
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,7 +3659,7 @@
         <v>4.028347143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">COUNT(A6:A17)</f>
@@ -3539,14 +3671,14 @@
         <v>4.021748247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9" t="n">
         <f aca="false">MEDIAN(A6:A17)</f>
         <v>4.025480909</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,14 +3686,14 @@
         <v>4.023195779</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">AVERAGE(A6:A17)</f>
         <v>4.0245246555</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,14 +3701,14 @@
         <v>4.025554913</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="e">
         <f aca="false">stdev.s(A6:A17)</f>
         <v>#NAME?</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3716,7 @@
         <v>4.02804855</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="e">
         <f aca="false">quartile.inc(A6:A17,1)</f>
@@ -3596,7 +3728,7 @@
         <v>4.027986407</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="e">
         <f aca="false">quartile.inc(A6:A17,3)</f>
@@ -3608,14 +3740,14 @@
         <v>4.025817987</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="e">
         <f aca="false">D11-D10</f>
         <v>#NAME?</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,14 +3755,14 @@
         <v>4.018397381</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="10" t="e">
+        <v>137</v>
+      </c>
+      <c r="D13" s="9" t="e">
         <f aca="false">0.7413*D12</f>
         <v>#NAME?</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3773,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,27 +3795,27 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>124</v>
+      <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,7 +3823,7 @@
         <v>120.4113439</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">COUNT(A22:A33)</f>
@@ -3703,14 +3835,14 @@
         <v>120.3347036</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D23" s="9" t="n">
         <f aca="false">MEDIAN(A22:A33)</f>
         <v>120.34772725</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,14 +3850,14 @@
         <v>120.3452569</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">AVERAGE(A22:A33)</f>
         <v>120.3559025</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,14 +3865,14 @@
         <v>120.3319368</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="e">
         <f aca="false">stdev.s(A22:A33)</f>
         <v>#NAME?</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,7 +3880,7 @@
         <v>120.3276285</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="e">
         <f aca="false">quartile.inc(A22:A33,1)</f>
@@ -3760,7 +3892,7 @@
         <v>120.367747</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="e">
         <f aca="false">quartile.inc(A22:A33,3)</f>
@@ -3772,14 +3904,14 @@
         <v>120.3851383</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="e">
         <f aca="false">D27-D26</f>
         <v>#NAME?</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,14 +3919,14 @@
         <v>120.3326087</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="10" t="e">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9" t="e">
         <f aca="false">0.7413*D28</f>
         <v>#NAME?</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,27 +3959,27 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>124</v>
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,7 +3987,7 @@
         <v>65.09426374</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">COUNT(A38:A49)</f>
@@ -3867,14 +3999,14 @@
         <v>64.88535165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D39" s="9" t="n">
         <f aca="false">MEDIAN(A38:A49)</f>
         <v>64.93953297</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,14 +4014,14 @@
         <v>64.84454945</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">AVERAGE(A38:A49)</f>
         <v>64.9606978041667</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,14 +4029,14 @@
         <v>64.9377033</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="e">
         <f aca="false">stdev.s(A38:A49)</f>
         <v>#NAME?</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +4044,7 @@
         <v>65.02823077</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="e">
         <f aca="false">quartile.inc(A38:A49,1)</f>
@@ -3924,7 +4056,7 @@
         <v>65.05642857</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="e">
         <f aca="false">quartile.inc(A38:A49,3)</f>
@@ -3936,14 +4068,14 @@
         <v>64.99881319</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1" t="e">
         <f aca="false">D43-D42</f>
         <v>#NAME?</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,14 +4083,14 @@
         <v>64.93223077</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="10" t="e">
+        <v>137</v>
+      </c>
+      <c r="D45" s="9" t="e">
         <f aca="false">0.7413*D44</f>
         <v>#NAME?</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,27 +4123,27 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="A52" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>124</v>
+      <c r="A53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4151,7 @@
         <v>80.00558399</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1" t="n">
         <f aca="false">COUNT(A54:A65)</f>
@@ -4031,14 +4163,14 @@
         <v>79.99473044</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D55" s="9" t="n">
         <f aca="false">MEDIAN(A54:A65)</f>
         <v>80.101362685</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,14 +4178,14 @@
         <v>80.18835654</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="n">
         <f aca="false">AVERAGE(A54:A65)</f>
         <v>80.1330451616667</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,14 +4193,14 @@
         <v>80.19802471</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="e">
         <f aca="false">stdev.s(A54:A65)</f>
         <v>#NAME?</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,7 +4208,7 @@
         <v>80.09170218</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="e">
         <f aca="false">quartile.inc(A54:A65,1)</f>
@@ -4088,7 +4220,7 @@
         <v>80.32563662</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="e">
         <f aca="false">quartile.inc(A54:A65,3)</f>
@@ -4100,14 +4232,14 @@
         <v>79.75691729</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D60" s="1" t="e">
         <f aca="false">D59-D58</f>
         <v>#NAME?</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,14 +4247,14 @@
         <v>80.33274862</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="10" t="e">
+        <v>137</v>
+      </c>
+      <c r="D61" s="9" t="e">
         <f aca="false">0.7413*D60</f>
         <v>#NAME?</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,10 +4265,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,27 +4287,27 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="A68" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>124</v>
+      <c r="A69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4315,7 @@
         <v>59.90268817</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1" t="n">
         <f aca="false">COUNT(A70:A81)</f>
@@ -4195,14 +4327,14 @@
         <v>59.88311828</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D71" s="9" t="n">
         <f aca="false">MEDIAN(A70:A81)</f>
         <v>59.89043011</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,14 +4342,14 @@
         <v>59.90290323</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1" t="n">
         <f aca="false">AVERAGE(A70:A81)</f>
         <v>59.8942741941667</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,14 +4357,14 @@
         <v>59.88021505</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1" t="e">
         <f aca="false">stdev.s(A70:A81)</f>
         <v>#NAME?</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4372,7 @@
         <v>59.88774194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1" t="e">
         <f aca="false">quartile.inc(A70:A81,1)</f>
@@ -4252,7 +4384,7 @@
         <v>59.89311828</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D75" s="1" t="e">
         <f aca="false">quartile.inc(A70:A81,3)</f>
@@ -4264,14 +4396,14 @@
         <v>59.90419355</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1" t="e">
         <f aca="false">D75-D74</f>
         <v>#NAME?</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,14 +4411,14 @@
         <v>59.88505376</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="10" t="e">
+        <v>137</v>
+      </c>
+      <c r="D77" s="9" t="e">
         <f aca="false">0.7413*D76</f>
         <v>#NAME?</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,38 +4452,38 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>133</v>
+      <c r="A85" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>12</v>
@@ -4371,10 +4503,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>12</v>
@@ -4394,10 +4526,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>12</v>
@@ -4417,10 +4549,10 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>12</v>
@@ -4440,10 +4572,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>12</v>
@@ -4489,7 +4621,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D38 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4507,7 +4639,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4521,7 +4653,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4535,12 +4667,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>59.9</v>
@@ -4548,7 +4680,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.6</v>
@@ -4556,7 +4688,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0.1</v>
@@ -4564,7 +4696,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0.05</v>
@@ -4572,7 +4704,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0.03</v>
@@ -4580,65 +4712,65 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="10" t="n">
+        <v>165</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <f aca="false">SQRT(B7^2+B8^2+B9^2)</f>
         <v>0.115758369027902</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="B11" s="9" t="n">
         <f aca="false">2*B10</f>
         <v>0.231516738055805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>59.95</v>
@@ -4649,34 +4781,34 @@
       <c r="D15" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="8" t="n">
         <f aca="false">(B15-$B$5)/$B$6</f>
         <v>0.0833333333333405</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">(B15-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0.0818244034143197</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="8" t="n">
         <f aca="false">(B15-$B$5)/SQRT(C15^2+$B$10^2)</f>
         <v>0.263889906984652</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="8" t="n">
         <f aca="false">(B15-$B$5)/SQRT(D15^2+$B$11^2)</f>
         <v>0.131944953492326</v>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="8" t="str">
         <f aca="false">IF(ABS(E15)&lt;=2,"Satisfactorio",IF(ABS(E15)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="8" t="str">
         <f aca="false">IF(ABS(H15)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>59.8</v>
@@ -4687,34 +4819,34 @@
       <c r="D16" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="8" t="n">
         <f aca="false">(B16-$B$5)/$B$6</f>
         <v>-0.166666666666669</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="8" t="n">
         <f aca="false">(B16-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>-0.163648806828628</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="8" t="n">
         <f aca="false">(B16-$B$5)/SQRT(C16^2+$B$10^2)</f>
         <v>-0.432742322407922</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="8" t="n">
         <f aca="false">(B16-$B$5)/SQRT(D16^2+$B$11^2)</f>
         <v>-0.216371161203961</v>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="8" t="str">
         <f aca="false">IF(ABS(E16)&lt;=2,"Satisfactorio",IF(ABS(E16)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="8" t="str">
         <f aca="false">IF(ABS(H16)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>60.5</v>
@@ -4725,34 +4857,34 @@
       <c r="D17" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="8" t="n">
         <f aca="false">(B17-$B$5)/$B$6</f>
         <v>1</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="8" t="n">
         <f aca="false">(B17-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0.981892840971755</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="8" t="n">
         <f aca="false">(B17-$B$5)/SQRT(C17^2+$B$10^2)</f>
         <v>3.92232270276369</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="8" t="n">
         <f aca="false">(B17-$B$5)/SQRT(D17^2+$B$11^2)</f>
         <v>1.96116135138184</v>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="8" t="str">
         <f aca="false">IF(ABS(E17)&lt;=2,"Satisfactorio",IF(ABS(E17)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="8" t="str">
         <f aca="false">IF(ABS(H17)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>No satisfactorio</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>59.9</v>
@@ -4763,34 +4895,34 @@
       <c r="D18" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="8" t="n">
         <f aca="false">(B18-$B$5)/$B$6</f>
         <v>0</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="8" t="n">
         <f aca="false">(B18-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="8" t="n">
         <f aca="false">(B18-$B$5)/SQRT(C18^2+$B$10^2)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="8" t="n">
         <f aca="false">(B18-$B$5)/SQRT(D18^2+$B$11^2)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="8" t="str">
         <f aca="false">IF(ABS(E18)&lt;=2,"Satisfactorio",IF(ABS(E18)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Satisfactorio</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="8" t="str">
         <f aca="false">IF(ABS(H18)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>Satisfactorio</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>58.5</v>
@@ -4801,95 +4933,95 @@
       <c r="D19" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="8" t="n">
         <f aca="false">(B19-$B$5)/$B$6</f>
         <v>-2.33333333333333</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">(B19-$B$5)/SQRT($B$6^2+$B$10^2)</f>
         <v>-2.29108329560075</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="8" t="n">
         <f aca="false">(B19-$B$5)/SQRT(C19^2+$B$10^2)</f>
         <v>-4.35379289499786</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="8" t="n">
         <f aca="false">(B19-$B$5)/SQRT(D19^2+$B$11^2)</f>
         <v>-2.17689644749893</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="8" t="str">
         <f aca="false">IF(ABS(E19)&lt;=2,"Satisfactorio",IF(ABS(E19)&lt;3,"Cuestionable","No satisfactorio"))</f>
         <v>Cuestionable</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="8" t="str">
         <f aca="false">IF(ABS(H19)&lt;=1,"Satisfactorio","No satisfactorio")</f>
         <v>No satisfactorio</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
